--- a/SodaMachine/SodaMachine.ProjectPlanning/SodaMachinePlanningDocument.xlsx
+++ b/SodaMachine/SodaMachine.ProjectPlanning/SodaMachinePlanningDocument.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcox\Desktop\git\IAmTimCoreyWeeklyChallenges\SodaMachine\SodaMachine.ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0531CCF-984C-4DEE-8CCF-844CF02A094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C6C65F-8246-420E-8350-0B8275D41496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13755" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,95 +26,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>Soda Machine</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Put in coins </t>
-  </si>
-  <si>
-    <t>2. Make selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. You get a soda. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soda Machine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coins </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transactions </t>
-  </si>
-  <si>
     <t>Drink</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
-    <t xml:space="preserve">Drink Stock </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity </t>
-  </si>
-  <si>
     <t>Methods</t>
   </si>
   <si>
-    <t xml:space="preserve">1. PurchaseDrink </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User inserts coins </t>
-  </si>
-  <si>
-    <t>Words</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrinksInventory </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvailableCoins </t>
-  </si>
-  <si>
     <t xml:space="preserve">Features the app will need </t>
   </si>
   <si>
     <t>1. Allow user to purchase a drink</t>
   </si>
   <si>
-    <t>2. Allow administrator to track total income of the machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Handle cases where there is unsufficient change. </t>
-  </si>
-  <si>
     <t xml:space="preserve">* User inputs money into the machine. </t>
   </si>
   <si>
-    <t xml:space="preserve">* User selects drink </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* User receives drink </t>
-  </si>
-  <si>
-    <t>* User receives change</t>
-  </si>
-  <si>
     <t>Behaviour</t>
   </si>
   <si>
@@ -136,16 +71,250 @@
   </si>
   <si>
     <t xml:space="preserve">***User receives change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink of appropriate type is subtracted from available inventory </t>
+  </si>
+  <si>
+    <t>***Transaction recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transaction is recorded specifying drink and time of purchase. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">***User inserts money </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money is added to the active balance. </t>
+  </si>
+  <si>
+    <t>*Administrator displays total income of the machine</t>
+  </si>
+  <si>
+    <t>DrinksMachine displays the total income of the machine since its inception
+based on the List&lt;Transactions&gt;</t>
+  </si>
+  <si>
+    <t>Only the change is subtracted from the active balance.
+Remainder added to the change directory. Account for cases where there is insufficient change!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Administrator adds stock to the machine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrinksMachine inventory updated to account for the new inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Administrator removes stock from the machine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrinksMachine inventory updated to account for the reduced inventory </t>
+  </si>
+  <si>
+    <t>2. Allow admistrator to restock the machine.</t>
+  </si>
+  <si>
+    <t>3. Allow admistrator to destock the machine.</t>
+  </si>
+  <si>
+    <t>4. Allow administrator to track total income of the machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Allow administrator to add change to the machine </t>
+  </si>
+  <si>
+    <t>*Administrator adds change to the machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrinksMachine ChangeInventory updated to account for new change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SodaMachine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;Transaction&gt; </t>
+  </si>
+  <si>
+    <t>ChangeInventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrinkType </t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t>List&lt;Soda&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock </t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>SodaInventory</t>
+  </si>
+  <si>
+    <t>List&lt;Coin&gt;</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActiveBalance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal </t>
+  </si>
+  <si>
+    <t>METHODS</t>
+  </si>
+  <si>
+    <t>CoinsInventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;Soda&gt; </t>
+  </si>
+  <si>
+    <t>1. void AddChange(Coin coin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Methods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. void DispenseDrink() </t>
+  </si>
+  <si>
+    <t>3. decimal DisplayActiveBalance()</t>
+  </si>
+  <si>
+    <t>2. void RefundMoney()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator Methods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. void AddStock(Drink drink) </t>
+  </si>
+  <si>
+    <t>2. void RemoveStock(Drink drink)</t>
+  </si>
+  <si>
+    <t>3. decimal DisplayTotalIncome()</t>
+  </si>
+  <si>
+    <t>4. void RemoveMoney(Change change)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features </t>
+  </si>
+  <si>
+    <t>TakeCoins</t>
+  </si>
+  <si>
+    <t>DispenseDrink</t>
+  </si>
+  <si>
+    <t>Multiple soda options</t>
+  </si>
+  <si>
+    <t>Has an inventory of soda</t>
+  </si>
+  <si>
+    <t>Has a way to indicate out of stock</t>
+  </si>
+  <si>
+    <t>Tracks how much money a user puts in</t>
+  </si>
+  <si>
+    <t>Make change</t>
+  </si>
+  <si>
+    <t>Tracks overall income</t>
+  </si>
+  <si>
+    <t>Only charges one price</t>
+  </si>
+  <si>
+    <t>ListTypesOfSoda</t>
+  </si>
+  <si>
+    <t>CoinInserted</t>
+  </si>
+  <si>
+    <t>GetSodaPrice</t>
+  </si>
+  <si>
+    <t>RequestSoda</t>
+  </si>
+  <si>
+    <t>IssueRefund</t>
+  </si>
+  <si>
+    <t>GetMoneyInsertedTotal</t>
+  </si>
+  <si>
+    <t>AddToInventory</t>
+  </si>
+  <si>
+    <t>EmptyMoneyFromMachine</t>
+  </si>
+  <si>
+    <t>GetCoinInventory</t>
+  </si>
+  <si>
+    <t>AddToCoinInventory</t>
+  </si>
+  <si>
+    <t>Has a coin inventory for change</t>
+  </si>
+  <si>
+    <t>GetCurrentIncome</t>
+  </si>
+  <si>
+    <t>GetTotalIncome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,6 +343,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,14 +406,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,208 +714,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K4" s="12"/>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="12"/>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="12"/>
+      <c r="M10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="49" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V49" s="1"/>
+    </row>
+    <row r="53" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="W54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B11DC1-41E8-4E7B-A107-899BF720A3CE}">
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>